--- a/key_shortcuts.xlsx
+++ b/key_shortcuts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ctrl+F</t>
   </si>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl+A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Take a snapshot picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Align binocular images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +70,22 @@
   </si>
   <si>
     <t>Exit fullscreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equalize cameras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch View Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -453,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -464,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,39 +488,47 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
